--- a/Defraudaciones enero-junio 2020.xlsx
+++ b/Defraudaciones enero-junio 2020.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5e7c57242aae7358/GitHub/Codigo-proyecto/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_C9EA7C2FE6F2380A7E63A46E5C8F64742F507620" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A8BDD08E-94A8-498F-A1C8-04A773E42C06}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -57,10 +63,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -102,10 +108,10 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Millares" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -410,30 +416,30 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E753"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -450,7 +456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -467,7 +473,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -484,7 +490,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -501,7 +507,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -518,7 +524,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -535,7 +541,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -552,7 +558,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -569,7 +575,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -586,7 +592,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -603,7 +609,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -620,7 +626,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -637,7 +643,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -654,7 +660,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -671,7 +677,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -688,7 +694,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -705,7 +711,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -722,7 +728,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -739,7 +745,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -756,7 +762,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -773,7 +779,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -790,7 +796,7 @@
         <v>43832</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -807,7 +813,7 @@
         <v>43833</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -824,7 +830,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -841,7 +847,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -858,7 +864,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -875,7 +881,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -892,7 +898,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -909,7 +915,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -926,7 +932,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -943,7 +949,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -960,7 +966,7 @@
         <v>43838</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -977,7 +983,7 @@
         <v>43839</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -994,7 +1000,7 @@
         <v>43840</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -1011,7 +1017,7 @@
         <v>43844</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1062,7 +1068,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1079,7 +1085,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1113,7 +1119,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1147,7 +1153,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1164,7 +1170,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1181,7 +1187,7 @@
         <v>43845</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1198,7 +1204,7 @@
         <v>43846</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1215,7 +1221,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1249,7 +1255,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1266,7 +1272,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1300,7 +1306,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1317,7 +1323,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1334,7 +1340,7 @@
         <v>43847</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +1357,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1368,7 +1374,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -1385,7 +1391,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -1402,7 +1408,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -1419,7 +1425,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -1436,7 +1442,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -1453,7 +1459,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -1470,7 +1476,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1487,7 +1493,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -1504,7 +1510,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -1521,7 +1527,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1538,7 +1544,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +1561,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -1589,7 +1595,7 @@
         <v>43853</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -1606,7 +1612,7 @@
         <v>43858</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -1623,7 +1629,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1640,7 +1646,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1657,7 +1663,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1674,7 +1680,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1697,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1714,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1759,7 +1765,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1776,7 +1782,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1793,7 +1799,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -1827,7 +1833,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -1878,7 +1884,7 @@
         <v>43861</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1895,7 +1901,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1912,7 +1918,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1929,7 +1935,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1946,7 +1952,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1963,7 +1969,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1980,7 +1986,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -2014,7 +2020,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2031,7 +2037,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2048,7 +2054,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2065,7 +2071,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2082,7 +2088,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2116,7 +2122,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2150,7 +2156,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2184,7 +2190,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2201,7 +2207,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2224,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2235,7 +2241,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2258,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2286,7 +2292,7 @@
         <v>43873</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>7</v>
       </c>
@@ -2303,7 +2309,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2320,7 +2326,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>7</v>
       </c>
@@ -2337,7 +2343,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>7</v>
       </c>
@@ -2354,7 +2360,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>7</v>
       </c>
@@ -2371,7 +2377,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>7</v>
       </c>
@@ -2388,7 +2394,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>7</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>7</v>
       </c>
@@ -2422,7 +2428,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>6</v>
       </c>
@@ -2439,7 +2445,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>7</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>7</v>
       </c>
@@ -2473,7 +2479,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>7</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +2513,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -2524,7 +2530,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -2558,7 +2564,7 @@
         <v>43874</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>7</v>
       </c>
@@ -2575,7 +2581,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>7</v>
       </c>
@@ -2592,7 +2598,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>7</v>
       </c>
@@ -2609,7 +2615,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>7</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>7</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>7</v>
       </c>
@@ -2660,7 +2666,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>7</v>
       </c>
@@ -2694,7 +2700,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>7</v>
       </c>
@@ -2711,7 +2717,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>7</v>
       </c>
@@ -2728,7 +2734,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>7</v>
       </c>
@@ -2745,7 +2751,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>7</v>
       </c>
@@ -2762,7 +2768,7 @@
         <v>43875</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>7</v>
       </c>
@@ -2779,7 +2785,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -2796,7 +2802,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>7</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -2830,7 +2836,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -2847,7 +2853,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -2864,7 +2870,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -2881,7 +2887,7 @@
         <v>43882</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -2898,7 +2904,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -2915,7 +2921,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -2932,7 +2938,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -2966,7 +2972,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -2983,7 +2989,7 @@
         <v>43885</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -3000,7 +3006,7 @@
         <v>43888</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -3017,7 +3023,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3034,7 +3040,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -3051,7 +3057,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -3068,7 +3074,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -3102,7 +3108,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -3119,7 +3125,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -3136,7 +3142,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -3153,7 +3159,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -3170,7 +3176,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -3187,7 +3193,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -3204,7 +3210,7 @@
         <v>43892</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3238,7 +3244,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -3255,7 +3261,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -3272,7 +3278,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -3289,7 +3295,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -3306,7 +3312,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -3340,7 +3346,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>43894</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -3374,7 +3380,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -3391,7 +3397,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -3408,7 +3414,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -3425,7 +3431,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -3459,7 +3465,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -3476,7 +3482,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -3510,7 +3516,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -3527,7 +3533,7 @@
         <v>43895</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -3544,7 +3550,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -3561,7 +3567,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -3578,7 +3584,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -3595,7 +3601,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -3612,7 +3618,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -3663,7 +3669,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -3680,7 +3686,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -3697,7 +3703,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -3714,7 +3720,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -3731,7 +3737,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -3748,7 +3754,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -3765,7 +3771,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -3782,7 +3788,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -3799,7 +3805,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>6</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>6</v>
       </c>
@@ -3833,7 +3839,7 @@
         <v>43896</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>7</v>
       </c>
@@ -3850,7 +3856,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3867,7 +3873,7 @@
         <v>43899</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -3884,7 +3890,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -3918,7 +3924,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -3935,7 +3941,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -3952,7 +3958,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -3969,7 +3975,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -3986,7 +3992,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -4003,7 +4009,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -4020,7 +4026,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -4054,7 +4060,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -4071,7 +4077,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -4088,7 +4094,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -4105,7 +4111,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -4139,7 +4145,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -4156,7 +4162,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -4173,7 +4179,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>6</v>
       </c>
@@ -4190,7 +4196,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -4207,7 +4213,7 @@
         <v>43902</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -4224,7 +4230,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>43907</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -4258,7 +4264,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -4275,7 +4281,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -4292,7 +4298,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -4326,7 +4332,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -4343,7 +4349,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -4360,7 +4366,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -4377,7 +4383,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -4394,7 +4400,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -4411,7 +4417,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -4428,7 +4434,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -4462,7 +4468,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>6</v>
       </c>
@@ -4479,7 +4485,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4496,7 +4502,7 @@
         <v>43908</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>6</v>
       </c>
@@ -4513,7 +4519,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>6</v>
       </c>
@@ -4530,7 +4536,7 @@
         <v>43909</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>6</v>
       </c>
@@ -4547,7 +4553,7 @@
         <v>43910</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -4564,7 +4570,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -4598,7 +4604,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -4615,7 +4621,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -4632,7 +4638,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -4649,7 +4655,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -4666,7 +4672,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -4683,7 +4689,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -4700,7 +4706,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -4734,7 +4740,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -4751,7 +4757,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -4768,7 +4774,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -4785,7 +4791,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -4802,7 +4808,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -4819,7 +4825,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -4836,7 +4842,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -4853,7 +4859,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -4870,7 +4876,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -4887,7 +4893,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -4904,7 +4910,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -4921,7 +4927,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -4938,7 +4944,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -4955,7 +4961,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>6</v>
       </c>
@@ -4972,7 +4978,7 @@
         <v>43915</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>6</v>
       </c>
@@ -4989,7 +4995,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>6</v>
       </c>
@@ -5006,7 +5012,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>6</v>
       </c>
@@ -5023,7 +5029,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>6</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>6</v>
       </c>
@@ -5057,7 +5063,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -5091,7 +5097,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -5108,7 +5114,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -5125,7 +5131,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -5142,7 +5148,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -5159,7 +5165,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -5176,7 +5182,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -5193,7 +5199,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -5210,7 +5216,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -5227,7 +5233,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -5244,7 +5250,7 @@
         <v>43917</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>6</v>
       </c>
@@ -5261,7 +5267,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>6</v>
       </c>
@@ -5278,7 +5284,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>6</v>
       </c>
@@ -5295,7 +5301,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>6</v>
       </c>
@@ -5312,7 +5318,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>6</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>6</v>
       </c>
@@ -5346,7 +5352,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>6</v>
       </c>
@@ -5363,7 +5369,7 @@
         <v>43921</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -5397,7 +5403,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -5414,7 +5420,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -5431,7 +5437,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -5448,7 +5454,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -5465,7 +5471,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -5482,7 +5488,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -5499,7 +5505,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -5516,7 +5522,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -5533,7 +5539,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -5550,7 +5556,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -5567,7 +5573,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -5584,7 +5590,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -5601,7 +5607,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5618,7 +5624,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -5635,7 +5641,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -5652,7 +5658,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -5669,7 +5675,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -5686,7 +5692,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -5703,7 +5709,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -5720,7 +5726,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -5737,7 +5743,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -5754,7 +5760,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -5771,7 +5777,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>5</v>
       </c>
@@ -5788,7 +5794,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -5805,7 +5811,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -5822,7 +5828,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>5</v>
       </c>
@@ -5839,7 +5845,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -5856,7 +5862,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -5873,7 +5879,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -5890,7 +5896,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -5907,7 +5913,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -5924,7 +5930,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -5941,7 +5947,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -5958,7 +5964,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -5975,7 +5981,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -5992,7 +5998,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -6009,7 +6015,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>5</v>
       </c>
@@ -6026,7 +6032,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -6043,7 +6049,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -6060,7 +6066,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -6094,7 +6100,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -6111,7 +6117,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -6128,7 +6134,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -6145,7 +6151,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>5</v>
       </c>
@@ -6162,7 +6168,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -6179,7 +6185,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -6196,7 +6202,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>5</v>
       </c>
@@ -6213,7 +6219,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>5</v>
       </c>
@@ -6230,7 +6236,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -6247,7 +6253,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -6264,7 +6270,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -6281,7 +6287,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -6298,7 +6304,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -6315,7 +6321,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -6332,7 +6338,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -6349,7 +6355,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -6366,7 +6372,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -6383,7 +6389,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -6400,7 +6406,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>5</v>
       </c>
@@ -6417,7 +6423,7 @@
         <v>43937</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>5</v>
       </c>
@@ -6434,7 +6440,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -6451,7 +6457,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>5</v>
       </c>
@@ -6468,7 +6474,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>5</v>
       </c>
@@ -6485,7 +6491,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>7</v>
       </c>
@@ -6519,7 +6525,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>7</v>
       </c>
@@ -6536,7 +6542,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>7</v>
       </c>
@@ -6553,7 +6559,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>7</v>
       </c>
@@ -6570,7 +6576,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>6</v>
       </c>
@@ -6587,7 +6593,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>7</v>
       </c>
@@ -6604,7 +6610,7 @@
         <v>43938</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>6</v>
       </c>
@@ -6621,7 +6627,7 @@
         <v>43943</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
         <v>7</v>
       </c>
@@ -6638,7 +6644,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
         <v>7</v>
       </c>
@@ -6655,7 +6661,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>7</v>
       </c>
@@ -6672,7 +6678,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>7</v>
       </c>
@@ -6689,7 +6695,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>7</v>
       </c>
@@ -6706,7 +6712,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>7</v>
       </c>
@@ -6723,7 +6729,7 @@
         <v>43944</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -6740,7 +6746,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>5</v>
       </c>
@@ -6757,7 +6763,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>5</v>
       </c>
@@ -6774,7 +6780,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -6791,7 +6797,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -6808,7 +6814,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -6825,7 +6831,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -6842,7 +6848,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>5</v>
       </c>
@@ -6859,7 +6865,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>5</v>
       </c>
@@ -6876,7 +6882,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -6893,7 +6899,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>5</v>
       </c>
@@ -6910,7 +6916,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -6927,7 +6933,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -6944,7 +6950,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -6961,7 +6967,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -6978,7 +6984,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>5</v>
       </c>
@@ -6995,7 +7001,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -7012,7 +7018,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
         <v>5</v>
       </c>
@@ -7029,7 +7035,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
         <v>5</v>
       </c>
@@ -7046,7 +7052,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>5</v>
       </c>
@@ -7063,7 +7069,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -7080,7 +7086,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -7097,7 +7103,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -7114,7 +7120,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -7131,7 +7137,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -7148,7 +7154,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -7165,7 +7171,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -7182,7 +7188,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>5</v>
       </c>
@@ -7199,7 +7205,7 @@
         <v>43949</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -7216,7 +7222,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -7233,7 +7239,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -7250,7 +7256,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>5</v>
       </c>
@@ -7267,7 +7273,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -7284,7 +7290,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -7301,7 +7307,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -7318,7 +7324,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -7335,7 +7341,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -7352,7 +7358,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>5</v>
       </c>
@@ -7369,7 +7375,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>5</v>
       </c>
@@ -7386,7 +7392,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -7403,7 +7409,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>5</v>
       </c>
@@ -7420,7 +7426,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>5</v>
       </c>
@@ -7437,7 +7443,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>5</v>
       </c>
@@ -7454,7 +7460,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>5</v>
       </c>
@@ -7471,7 +7477,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -7488,7 +7494,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
         <v>5</v>
       </c>
@@ -7505,7 +7511,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
         <v>5</v>
       </c>
@@ -7522,7 +7528,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
         <v>5</v>
       </c>
@@ -7539,7 +7545,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>5</v>
       </c>
@@ -7556,7 +7562,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>5</v>
       </c>
@@ -7573,7 +7579,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>5</v>
       </c>
@@ -7590,7 +7596,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
         <v>5</v>
       </c>
@@ -7607,7 +7613,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -7624,7 +7630,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -7641,7 +7647,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>5</v>
       </c>
@@ -7658,7 +7664,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>5</v>
       </c>
@@ -7675,7 +7681,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>5</v>
       </c>
@@ -7692,7 +7698,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>5</v>
       </c>
@@ -7709,7 +7715,7 @@
         <v>43957</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>6</v>
       </c>
@@ -7726,7 +7732,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>6</v>
       </c>
@@ -7743,7 +7749,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>6</v>
       </c>
@@ -7760,7 +7766,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>6</v>
       </c>
@@ -7777,7 +7783,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>6</v>
       </c>
@@ -7794,7 +7800,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
         <v>6</v>
       </c>
@@ -7811,7 +7817,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
         <v>6</v>
       </c>
@@ -7828,7 +7834,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>6</v>
       </c>
@@ -7845,7 +7851,7 @@
         <v>43958</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>5</v>
       </c>
@@ -7862,7 +7868,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>5</v>
       </c>
@@ -7879,7 +7885,7 @@
         <v>43959</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -7896,7 +7902,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>5</v>
       </c>
@@ -7913,7 +7919,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>5</v>
       </c>
@@ -7930,7 +7936,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>5</v>
       </c>
@@ -7947,7 +7953,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>5</v>
       </c>
@@ -7964,7 +7970,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>5</v>
       </c>
@@ -7981,7 +7987,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>5</v>
       </c>
@@ -7998,7 +8004,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>5</v>
       </c>
@@ -8015,7 +8021,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>5</v>
       </c>
@@ -8032,7 +8038,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>5</v>
       </c>
@@ -8049,7 +8055,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>5</v>
       </c>
@@ -8066,7 +8072,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>5</v>
       </c>
@@ -8083,7 +8089,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>5</v>
       </c>
@@ -8100,7 +8106,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>5</v>
       </c>
@@ -8117,7 +8123,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>5</v>
       </c>
@@ -8134,7 +8140,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
         <v>5</v>
       </c>
@@ -8151,7 +8157,7 @@
         <v>43963</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
         <v>6</v>
       </c>
@@ -8168,7 +8174,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>6</v>
       </c>
@@ -8185,7 +8191,7 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>7</v>
       </c>
@@ -8202,7 +8208,7 @@
         <v>43965</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>5</v>
       </c>
@@ -8219,7 +8225,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>5</v>
       </c>
@@ -8236,7 +8242,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>5</v>
       </c>
@@ -8253,7 +8259,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>5</v>
       </c>
@@ -8270,7 +8276,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>5</v>
       </c>
@@ -8287,7 +8293,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>5</v>
       </c>
@@ -8304,7 +8310,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>5</v>
       </c>
@@ -8321,7 +8327,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>5</v>
       </c>
@@ -8338,7 +8344,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
         <v>5</v>
       </c>
@@ -8355,7 +8361,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
         <v>5</v>
       </c>
@@ -8372,7 +8378,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>5</v>
       </c>
@@ -8389,7 +8395,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>5</v>
       </c>
@@ -8406,7 +8412,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>5</v>
       </c>
@@ -8440,7 +8446,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
         <v>5</v>
       </c>
@@ -8457,7 +8463,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>5</v>
       </c>
@@ -8474,7 +8480,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>5</v>
       </c>
@@ -8491,7 +8497,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>5</v>
       </c>
@@ -8508,7 +8514,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>5</v>
       </c>
@@ -8525,7 +8531,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>5</v>
       </c>
@@ -8542,7 +8548,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>5</v>
       </c>
@@ -8559,7 +8565,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
         <v>5</v>
       </c>
@@ -8576,7 +8582,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>5</v>
       </c>
@@ -8593,7 +8599,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>5</v>
       </c>
@@ -8610,7 +8616,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>5</v>
       </c>
@@ -8627,7 +8633,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>5</v>
       </c>
@@ -8644,7 +8650,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>5</v>
       </c>
@@ -8661,7 +8667,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>5</v>
       </c>
@@ -8678,7 +8684,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>6</v>
       </c>
@@ -8695,7 +8701,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>6</v>
       </c>
@@ -8712,7 +8718,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>6</v>
       </c>
@@ -8729,7 +8735,7 @@
         <v>43970</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>6</v>
       </c>
@@ -8746,7 +8752,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>6</v>
       </c>
@@ -8763,7 +8769,7 @@
         <v>43971</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>5</v>
       </c>
@@ -8780,7 +8786,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
         <v>5</v>
       </c>
@@ -8797,7 +8803,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>5</v>
       </c>
@@ -8814,7 +8820,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>5</v>
       </c>
@@ -8831,7 +8837,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>5</v>
       </c>
@@ -8848,7 +8854,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
         <v>5</v>
       </c>
@@ -8865,7 +8871,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
         <v>5</v>
       </c>
@@ -8882,7 +8888,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>5</v>
       </c>
@@ -8899,7 +8905,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>5</v>
       </c>
@@ -8916,7 +8922,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>5</v>
       </c>
@@ -8933,7 +8939,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>5</v>
       </c>
@@ -8950,7 +8956,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>5</v>
       </c>
@@ -8967,7 +8973,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>5</v>
       </c>
@@ -8984,7 +8990,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
         <v>5</v>
       </c>
@@ -9001,7 +9007,7 @@
         <v>43972</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>7</v>
       </c>
@@ -9018,7 +9024,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>7</v>
       </c>
@@ -9035,7 +9041,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>7</v>
       </c>
@@ -9052,7 +9058,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" t="s">
         <v>7</v>
       </c>
@@ -9069,7 +9075,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" t="s">
         <v>7</v>
       </c>
@@ -9086,7 +9092,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" t="s">
         <v>7</v>
       </c>
@@ -9103,7 +9109,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" t="s">
         <v>7</v>
       </c>
@@ -9120,7 +9126,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" t="s">
         <v>7</v>
       </c>
@@ -9137,7 +9143,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" t="s">
         <v>7</v>
       </c>
@@ -9154,7 +9160,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" t="s">
         <v>7</v>
       </c>
@@ -9171,7 +9177,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" t="s">
         <v>7</v>
       </c>
@@ -9188,7 +9194,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" t="s">
         <v>7</v>
       </c>
@@ -9205,7 +9211,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" t="s">
         <v>7</v>
       </c>
@@ -9222,7 +9228,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" t="s">
         <v>7</v>
       </c>
@@ -9239,7 +9245,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" t="s">
         <v>7</v>
       </c>
@@ -9256,7 +9262,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" t="s">
         <v>7</v>
       </c>
@@ -9273,7 +9279,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" t="s">
         <v>7</v>
       </c>
@@ -9290,7 +9296,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
         <v>5</v>
       </c>
@@ -9307,7 +9313,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" t="s">
         <v>5</v>
       </c>
@@ -9324,7 +9330,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" t="s">
         <v>5</v>
       </c>
@@ -9341,7 +9347,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" t="s">
         <v>5</v>
       </c>
@@ -9358,7 +9364,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" t="s">
         <v>5</v>
       </c>
@@ -9375,7 +9381,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
         <v>5</v>
       </c>
@@ -9392,7 +9398,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" t="s">
         <v>5</v>
       </c>
@@ -9409,7 +9415,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" t="s">
         <v>5</v>
       </c>
@@ -9426,7 +9432,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" t="s">
         <v>5</v>
       </c>
@@ -9443,7 +9449,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" t="s">
         <v>5</v>
       </c>
@@ -9460,7 +9466,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" t="s">
         <v>5</v>
       </c>
@@ -9477,7 +9483,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" t="s">
         <v>5</v>
       </c>
@@ -9494,7 +9500,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" t="s">
         <v>5</v>
       </c>
@@ -9511,7 +9517,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" t="s">
         <v>5</v>
       </c>
@@ -9528,7 +9534,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" t="s">
         <v>6</v>
       </c>
@@ -9545,7 +9551,7 @@
         <v>43973</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" t="s">
         <v>6</v>
       </c>
@@ -9562,7 +9568,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" t="s">
         <v>7</v>
       </c>
@@ -9579,7 +9585,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" t="s">
         <v>7</v>
       </c>
@@ -9596,7 +9602,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" t="s">
         <v>7</v>
       </c>
@@ -9613,7 +9619,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" t="s">
         <v>5</v>
       </c>
@@ -9630,7 +9636,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" t="s">
         <v>5</v>
       </c>
@@ -9647,7 +9653,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" t="s">
         <v>5</v>
       </c>
@@ -9664,7 +9670,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" t="s">
         <v>5</v>
       </c>
@@ -9681,7 +9687,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" t="s">
         <v>5</v>
       </c>
@@ -9698,7 +9704,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" t="s">
         <v>5</v>
       </c>
@@ -9715,7 +9721,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" t="s">
         <v>5</v>
       </c>
@@ -9732,7 +9738,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" t="s">
         <v>5</v>
       </c>
@@ -9749,7 +9755,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" t="s">
         <v>5</v>
       </c>
@@ -9766,7 +9772,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" t="s">
         <v>5</v>
       </c>
@@ -9783,7 +9789,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" t="s">
         <v>5</v>
       </c>
@@ -9800,7 +9806,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" t="s">
         <v>5</v>
       </c>
@@ -9817,7 +9823,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" t="s">
         <v>5</v>
       </c>
@@ -9834,7 +9840,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" t="s">
         <v>5</v>
       </c>
@@ -9851,7 +9857,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" t="s">
         <v>5</v>
       </c>
@@ -9868,7 +9874,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" t="s">
         <v>5</v>
       </c>
@@ -9885,7 +9891,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" t="s">
         <v>5</v>
       </c>
@@ -9902,7 +9908,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
         <v>5</v>
       </c>
@@ -9919,7 +9925,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" t="s">
         <v>5</v>
       </c>
@@ -9936,7 +9942,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" t="s">
         <v>5</v>
       </c>
@@ -9953,7 +9959,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" t="s">
         <v>5</v>
       </c>
@@ -9970,7 +9976,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" t="s">
         <v>6</v>
       </c>
@@ -9987,7 +9993,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" t="s">
         <v>6</v>
       </c>
@@ -10004,7 +10010,7 @@
         <v>43977</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" t="s">
         <v>6</v>
       </c>
@@ -10021,7 +10027,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" t="s">
         <v>6</v>
       </c>
@@ -10038,7 +10044,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" t="s">
         <v>6</v>
       </c>
@@ -10055,7 +10061,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" t="s">
         <v>6</v>
       </c>
@@ -10072,7 +10078,7 @@
         <v>43978</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" t="s">
         <v>6</v>
       </c>
@@ -10089,7 +10095,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" t="s">
         <v>6</v>
       </c>
@@ -10106,7 +10112,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" t="s">
         <v>6</v>
       </c>
@@ -10123,7 +10129,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" t="s">
         <v>6</v>
       </c>
@@ -10140,7 +10146,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" t="s">
         <v>6</v>
       </c>
@@ -10157,7 +10163,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" t="s">
         <v>6</v>
       </c>
@@ -10174,7 +10180,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" t="s">
         <v>6</v>
       </c>
@@ -10191,7 +10197,7 @@
         <v>43979</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" t="s">
         <v>6</v>
       </c>
@@ -10208,7 +10214,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" t="s">
         <v>6</v>
       </c>
@@ -10225,7 +10231,7 @@
         <v>43980</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" t="s">
         <v>6</v>
       </c>
@@ -10242,7 +10248,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" t="s">
         <v>6</v>
       </c>
@@ -10259,7 +10265,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" t="s">
         <v>6</v>
       </c>
@@ -10276,7 +10282,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" t="s">
         <v>6</v>
       </c>
@@ -10293,7 +10299,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
         <v>6</v>
       </c>
@@ -10310,7 +10316,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" t="s">
         <v>5</v>
       </c>
@@ -10327,7 +10333,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" t="s">
         <v>5</v>
       </c>
@@ -10344,7 +10350,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" t="s">
         <v>7</v>
       </c>
@@ -10361,7 +10367,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585" t="s">
         <v>7</v>
       </c>
@@ -10378,7 +10384,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" t="s">
         <v>7</v>
       </c>
@@ -10395,7 +10401,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" t="s">
         <v>7</v>
       </c>
@@ -10412,7 +10418,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
         <v>7</v>
       </c>
@@ -10429,7 +10435,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" t="s">
         <v>7</v>
       </c>
@@ -10446,7 +10452,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
         <v>7</v>
       </c>
@@ -10463,7 +10469,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" t="s">
         <v>7</v>
       </c>
@@ -10480,7 +10486,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" t="s">
         <v>7</v>
       </c>
@@ -10497,7 +10503,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
         <v>7</v>
       </c>
@@ -10514,7 +10520,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594" t="s">
         <v>7</v>
       </c>
@@ -10531,7 +10537,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595" t="s">
         <v>5</v>
       </c>
@@ -10548,7 +10554,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" t="s">
         <v>5</v>
       </c>
@@ -10565,7 +10571,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597" t="s">
         <v>5</v>
       </c>
@@ -10582,7 +10588,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598" t="s">
         <v>5</v>
       </c>
@@ -10599,7 +10605,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599" t="s">
         <v>5</v>
       </c>
@@ -10616,7 +10622,7 @@
         <v>43984</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" t="s">
         <v>5</v>
       </c>
@@ -10633,7 +10639,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601" t="s">
         <v>5</v>
       </c>
@@ -10650,7 +10656,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602" t="s">
         <v>5</v>
       </c>
@@ -10667,7 +10673,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
         <v>5</v>
       </c>
@@ -10684,7 +10690,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A604" t="s">
         <v>5</v>
       </c>
@@ -10701,7 +10707,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605" t="s">
         <v>5</v>
       </c>
@@ -10718,7 +10724,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
         <v>5</v>
       </c>
@@ -10735,7 +10741,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A607" t="s">
         <v>5</v>
       </c>
@@ -10752,7 +10758,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608" t="s">
         <v>5</v>
       </c>
@@ -10769,7 +10775,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A609" t="s">
         <v>5</v>
       </c>
@@ -10786,7 +10792,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A610" t="s">
         <v>5</v>
       </c>
@@ -10803,7 +10809,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A611" t="s">
         <v>5</v>
       </c>
@@ -10820,7 +10826,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" t="s">
         <v>5</v>
       </c>
@@ -10837,7 +10843,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A613" t="s">
         <v>5</v>
       </c>
@@ -10854,7 +10860,7 @@
         <v>43985</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A614" t="s">
         <v>5</v>
       </c>
@@ -10871,7 +10877,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A615" t="s">
         <v>5</v>
       </c>
@@ -10888,7 +10894,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616" t="s">
         <v>5</v>
       </c>
@@ -10905,7 +10911,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A617" t="s">
         <v>5</v>
       </c>
@@ -10922,7 +10928,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A618" t="s">
         <v>5</v>
       </c>
@@ -10939,7 +10945,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619" t="s">
         <v>5</v>
       </c>
@@ -10956,7 +10962,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620" t="s">
         <v>5</v>
       </c>
@@ -10973,7 +10979,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A621" t="s">
         <v>5</v>
       </c>
@@ -10990,7 +10996,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A622" t="s">
         <v>5</v>
       </c>
@@ -11007,7 +11013,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A623" t="s">
         <v>5</v>
       </c>
@@ -11024,7 +11030,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
         <v>5</v>
       </c>
@@ -11041,7 +11047,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A625" t="s">
         <v>5</v>
       </c>
@@ -11058,7 +11064,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A626" t="s">
         <v>5</v>
       </c>
@@ -11075,7 +11081,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A627" t="s">
         <v>5</v>
       </c>
@@ -11092,7 +11098,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A628" t="s">
         <v>5</v>
       </c>
@@ -11109,7 +11115,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A629" t="s">
         <v>5</v>
       </c>
@@ -11126,7 +11132,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A630" t="s">
         <v>5</v>
       </c>
@@ -11143,7 +11149,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A631" t="s">
         <v>5</v>
       </c>
@@ -11160,7 +11166,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A632" t="s">
         <v>5</v>
       </c>
@@ -11177,7 +11183,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A633" t="s">
         <v>5</v>
       </c>
@@ -11194,7 +11200,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A634" t="s">
         <v>5</v>
       </c>
@@ -11211,7 +11217,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A635" t="s">
         <v>5</v>
       </c>
@@ -11228,7 +11234,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A636" t="s">
         <v>5</v>
       </c>
@@ -11245,7 +11251,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A637" t="s">
         <v>5</v>
       </c>
@@ -11262,7 +11268,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A638" t="s">
         <v>5</v>
       </c>
@@ -11279,7 +11285,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A639" t="s">
         <v>5</v>
       </c>
@@ -11296,7 +11302,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A640" t="s">
         <v>5</v>
       </c>
@@ -11313,7 +11319,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A641" t="s">
         <v>5</v>
       </c>
@@ -11330,7 +11336,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A642" t="s">
         <v>5</v>
       </c>
@@ -11347,7 +11353,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A643" t="s">
         <v>5</v>
       </c>
@@ -11364,7 +11370,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A644" t="s">
         <v>5</v>
       </c>
@@ -11381,7 +11387,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A645" t="s">
         <v>5</v>
       </c>
@@ -11398,7 +11404,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A646" t="s">
         <v>5</v>
       </c>
@@ -11415,7 +11421,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A647" t="s">
         <v>5</v>
       </c>
@@ -11432,7 +11438,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A648" t="s">
         <v>5</v>
       </c>
@@ -11449,7 +11455,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
         <v>5</v>
       </c>
@@ -11466,7 +11472,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A650" t="s">
         <v>5</v>
       </c>
@@ -11483,7 +11489,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A651" t="s">
         <v>5</v>
       </c>
@@ -11500,7 +11506,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
         <v>5</v>
       </c>
@@ -11517,7 +11523,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
         <v>5</v>
       </c>
@@ -11534,7 +11540,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A654" t="s">
         <v>5</v>
       </c>
@@ -11551,7 +11557,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
         <v>5</v>
       </c>
@@ -11568,7 +11574,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A656" t="s">
         <v>5</v>
       </c>
@@ -11585,7 +11591,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A657" t="s">
         <v>5</v>
       </c>
@@ -11602,7 +11608,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A658" t="s">
         <v>5</v>
       </c>
@@ -11619,7 +11625,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A659" t="s">
         <v>5</v>
       </c>
@@ -11636,7 +11642,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A660" t="s">
         <v>5</v>
       </c>
@@ -11653,7 +11659,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A661" t="s">
         <v>5</v>
       </c>
@@ -11670,7 +11676,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A662" t="s">
         <v>7</v>
       </c>
@@ -11687,7 +11693,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A663" t="s">
         <v>5</v>
       </c>
@@ -11704,7 +11710,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A664" t="s">
         <v>5</v>
       </c>
@@ -11721,7 +11727,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
         <v>5</v>
       </c>
@@ -11738,7 +11744,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A666" t="s">
         <v>5</v>
       </c>
@@ -11755,7 +11761,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A667" t="s">
         <v>5</v>
       </c>
@@ -11772,7 +11778,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A668" t="s">
         <v>5</v>
       </c>
@@ -11789,7 +11795,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A669" t="s">
         <v>5</v>
       </c>
@@ -11806,7 +11812,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A670" t="s">
         <v>5</v>
       </c>
@@ -11823,7 +11829,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A671" t="s">
         <v>5</v>
       </c>
@@ -11840,7 +11846,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A672" t="s">
         <v>6</v>
       </c>
@@ -11857,7 +11863,7 @@
         <v>43994</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A673" t="s">
         <v>6</v>
       </c>
@@ -11874,7 +11880,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A674" t="s">
         <v>6</v>
       </c>
@@ -11891,7 +11897,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A675" t="s">
         <v>6</v>
       </c>
@@ -11908,7 +11914,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A676" t="s">
         <v>6</v>
       </c>
@@ -11925,7 +11931,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A677" t="s">
         <v>5</v>
       </c>
@@ -11942,7 +11948,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A678" t="s">
         <v>5</v>
       </c>
@@ -11959,7 +11965,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A679" t="s">
         <v>5</v>
       </c>
@@ -11976,7 +11982,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A680" t="s">
         <v>5</v>
       </c>
@@ -11993,7 +11999,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A681" t="s">
         <v>5</v>
       </c>
@@ -12010,7 +12016,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A682" t="s">
         <v>5</v>
       </c>
@@ -12027,7 +12033,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A683" t="s">
         <v>5</v>
       </c>
@@ -12044,7 +12050,7 @@
         <v>43998</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A684" t="s">
         <v>7</v>
       </c>
@@ -12061,7 +12067,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A685" t="s">
         <v>7</v>
       </c>
@@ -12078,7 +12084,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A686" t="s">
         <v>7</v>
       </c>
@@ -12095,7 +12101,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A687" t="s">
         <v>6</v>
       </c>
@@ -12112,7 +12118,7 @@
         <v>43999</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A688" t="s">
         <v>5</v>
       </c>
@@ -12129,7 +12135,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A689" t="s">
         <v>5</v>
       </c>
@@ -12146,7 +12152,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A690" t="s">
         <v>5</v>
       </c>
@@ -12163,7 +12169,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A691" t="s">
         <v>5</v>
       </c>
@@ -12180,7 +12186,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A692" t="s">
         <v>5</v>
       </c>
@@ -12197,7 +12203,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
         <v>5</v>
       </c>
@@ -12214,7 +12220,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
         <v>5</v>
       </c>
@@ -12231,7 +12237,7 @@
         <v>44001</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A695" t="s">
         <v>6</v>
       </c>
@@ -12248,7 +12254,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A696" t="s">
         <v>6</v>
       </c>
@@ -12265,7 +12271,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A697" t="s">
         <v>6</v>
       </c>
@@ -12282,7 +12288,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A698" t="s">
         <v>5</v>
       </c>
@@ -12299,7 +12305,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A699" t="s">
         <v>5</v>
       </c>
@@ -12316,7 +12322,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A700" t="s">
         <v>5</v>
       </c>
@@ -12333,7 +12339,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A701" t="s">
         <v>5</v>
       </c>
@@ -12350,7 +12356,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A702" t="s">
         <v>5</v>
       </c>
@@ -12367,7 +12373,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A703" t="s">
         <v>5</v>
       </c>
@@ -12384,7 +12390,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A704" t="s">
         <v>5</v>
       </c>
@@ -12401,7 +12407,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A705" t="s">
         <v>5</v>
       </c>
@@ -12418,7 +12424,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A706" t="s">
         <v>5</v>
       </c>
@@ -12435,7 +12441,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A707" t="s">
         <v>5</v>
       </c>
@@ -12452,7 +12458,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A708" t="s">
         <v>5</v>
       </c>
@@ -12469,7 +12475,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A709" t="s">
         <v>5</v>
       </c>
@@ -12486,7 +12492,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A710" t="s">
         <v>5</v>
       </c>
@@ -12503,7 +12509,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A711" t="s">
         <v>5</v>
       </c>
@@ -12520,7 +12526,7 @@
         <v>44005</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A712" t="s">
         <v>7</v>
       </c>
@@ -12537,7 +12543,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A713" t="s">
         <v>7</v>
       </c>
@@ -12554,7 +12560,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A714" t="s">
         <v>7</v>
       </c>
@@ -12571,7 +12577,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
         <v>7</v>
       </c>
@@ -12588,7 +12594,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A716" t="s">
         <v>7</v>
       </c>
@@ -12605,7 +12611,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A717" t="s">
         <v>7</v>
       </c>
@@ -12622,7 +12628,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A718" t="s">
         <v>5</v>
       </c>
@@ -12639,7 +12645,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A719" t="s">
         <v>5</v>
       </c>
@@ -12656,7 +12662,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A720" t="s">
         <v>5</v>
       </c>
@@ -12673,7 +12679,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A721" t="s">
         <v>5</v>
       </c>
@@ -12690,7 +12696,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A722" t="s">
         <v>5</v>
       </c>
@@ -12707,7 +12713,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A723" t="s">
         <v>5</v>
       </c>
@@ -12724,7 +12730,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A724" t="s">
         <v>5</v>
       </c>
@@ -12741,7 +12747,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A725" t="s">
         <v>5</v>
       </c>
@@ -12758,7 +12764,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A726" t="s">
         <v>5</v>
       </c>
@@ -12775,7 +12781,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A727" t="s">
         <v>5</v>
       </c>
@@ -12792,7 +12798,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A728" t="s">
         <v>5</v>
       </c>
@@ -12809,7 +12815,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A729" t="s">
         <v>5</v>
       </c>
@@ -12826,7 +12832,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A730" t="s">
         <v>5</v>
       </c>
@@ -12843,7 +12849,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" t="s">
         <v>5</v>
       </c>
@@ -12860,7 +12866,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" t="s">
         <v>5</v>
       </c>
@@ -12877,7 +12883,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
         <v>5</v>
       </c>
@@ -12894,7 +12900,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A734" t="s">
         <v>5</v>
       </c>
@@ -12911,7 +12917,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A735" t="s">
         <v>5</v>
       </c>
@@ -12928,7 +12934,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A736" t="s">
         <v>5</v>
       </c>
@@ -12945,7 +12951,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A737" t="s">
         <v>5</v>
       </c>
@@ -12962,7 +12968,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A738" t="s">
         <v>5</v>
       </c>
@@ -12979,7 +12985,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A739" t="s">
         <v>5</v>
       </c>
@@ -12996,7 +13002,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A740" t="s">
         <v>5</v>
       </c>
@@ -13013,7 +13019,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A741" t="s">
         <v>5</v>
       </c>
@@ -13030,7 +13036,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A742" t="s">
         <v>5</v>
       </c>
@@ -13047,7 +13053,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A743" t="s">
         <v>6</v>
       </c>
@@ -13064,7 +13070,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A744" t="s">
         <v>6</v>
       </c>
@@ -13081,7 +13087,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A745" t="s">
         <v>6</v>
       </c>
@@ -13098,7 +13104,7 @@
         <v>44007</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A746" t="s">
         <v>6</v>
       </c>
@@ -13115,7 +13121,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A747" t="s">
         <v>6</v>
       </c>
@@ -13132,7 +13138,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A748" t="s">
         <v>6</v>
       </c>
@@ -13149,7 +13155,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A749" t="s">
         <v>7</v>
       </c>
@@ -13166,7 +13172,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A750" t="s">
         <v>7</v>
       </c>
@@ -13183,7 +13189,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A751" t="s">
         <v>7</v>
       </c>
@@ -13200,7 +13206,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A752" t="s">
         <v>7</v>
       </c>
@@ -13217,7 +13223,7 @@
         <v>44008</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
         <v>7</v>
       </c>
